--- a/KetQuaTest_OrdersManagerServlet.xlsx
+++ b/KetQuaTest_OrdersManagerServlet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -38,16 +38,16 @@
     <t>ORD_MGR_02</t>
   </si>
   <si>
-    <t>Lọc đơn hàng theo trạng thái</t>
+    <t>Lọc đơn hàng</t>
+  </si>
+  <si>
+    <t>Status='Pending'</t>
   </si>
   <si>
     <t>1. Action='List'
 2. Status='Pending'</t>
   </si>
   <si>
-    <t>Status='Pending'</t>
-  </si>
-  <si>
     <t>Call getOrdersByStatus</t>
   </si>
   <si>
@@ -61,48 +61,106 @@
   </si>
   <si>
     <t>Xem tất cả đơn hàng</t>
+  </si>
+  <si>
+    <t>Status=null</t>
   </si>
   <si>
     <t>1. Action='List'
 2. Status=null</t>
   </si>
   <si>
-    <t>Status=null</t>
-  </si>
-  <si>
     <t>Forward View-orders.jsp</t>
   </si>
   <si>
-    <t>ORD_MGR_04</t>
+    <t>ORD_MGR_06</t>
   </si>
   <si>
     <t>Xóa đơn hàng</t>
+  </si>
+  <si>
+    <t>ID=5</t>
   </si>
   <si>
     <t>1. Action='Delete'
 2. ID=5</t>
   </si>
   <si>
-    <t>ID=5</t>
-  </si>
-  <si>
     <t>Call delete -&gt; Redirect</t>
   </si>
   <si>
-    <t>ORD_MGR_03</t>
-  </si>
-  <si>
-    <t>Cập nhật trạng thái đơn</t>
+    <t>ORD_MGR_04</t>
+  </si>
+  <si>
+    <t>Lưu cập nhật đơn hàng</t>
+  </si>
+  <si>
+    <t>ID=10, Total=500k</t>
+  </si>
+  <si>
+    <t>1. Action='SaveOrUpdate'
+2. Params đầy đủ</t>
+  </si>
+  <si>
+    <t>Call Service Save -&gt; Redirect List</t>
+  </si>
+  <si>
+    <t>ORD_MGR_08</t>
+  </si>
+  <si>
+    <t>Lỗi hệ thống</t>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>Service ném lỗi</t>
+  </si>
+  <si>
+    <t>Forward trang error.jsp</t>
+  </si>
+  <si>
+    <t>ORD_MGR_05</t>
+  </si>
+  <si>
+    <t>Cập nhật trạng thái nhanh</t>
+  </si>
+  <si>
+    <t>ID=10, St='Done'</t>
   </si>
   <si>
     <t>1. Action='UpdateStatus'
 2. ID=10, Status='Done'</t>
   </si>
   <si>
-    <t>ID=10, St='Done'</t>
-  </si>
-  <si>
     <t>Call update -&gt; Redirect</t>
+  </si>
+  <si>
+    <t>ORD_MGR_03</t>
+  </si>
+  <si>
+    <t>Hiện form sửa đơn</t>
+  </si>
+  <si>
+    <t>1. Action='AddOrEdit', ID=5</t>
+  </si>
+  <si>
+    <t>Forward OrdersManager.jsp</t>
+  </si>
+  <si>
+    <t>ORD_MGR_07</t>
+  </si>
+  <si>
+    <t>Action Null -&gt; List</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Action=null</t>
+  </si>
+  <si>
+    <t>Mặc định gọi getAllOrders</t>
   </si>
 </sst>
 </file>
@@ -180,17 +238,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="13.92578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="26.9296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.1953125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="15.8984375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="23.01953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.28515625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="25.4765625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="29.5859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="16.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
   </cols>
@@ -310,6 +368,98 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
